--- a/doc/后台接口文档-V3.xlsx
+++ b/doc/后台接口文档-V3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liudongxu/Documents/人员测评报告系统开发-华夏基石/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\excel_report\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="序列码表" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,6 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -33,7 +30,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="N5" authorId="0">
+    <comment ref="N5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N18" authorId="0">
+    <comment ref="N18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N19" authorId="0">
+    <comment ref="N19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N20" authorId="0">
+    <comment ref="N20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N21" authorId="0">
+    <comment ref="N21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N22" authorId="0">
+    <comment ref="N22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -189,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N23" authorId="0">
+    <comment ref="N23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N24" authorId="0">
+    <comment ref="N24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -241,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N25" authorId="0">
+    <comment ref="N25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -267,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N26" authorId="0">
+    <comment ref="N26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N27" authorId="0">
+    <comment ref="N27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -319,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N28" authorId="0">
+    <comment ref="N28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N36" authorId="0">
+    <comment ref="N36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -371,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N37" authorId="0">
+    <comment ref="N37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -397,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N38" authorId="0">
+    <comment ref="N38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -423,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N39" authorId="0">
+    <comment ref="N39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -449,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N40" authorId="0">
+    <comment ref="N40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -475,7 +472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N41" authorId="0">
+    <comment ref="N41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -501,7 +498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N42" authorId="0">
+    <comment ref="N42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -527,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N43" authorId="0">
+    <comment ref="N43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -553,7 +550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N44" authorId="0">
+    <comment ref="N44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -579,7 +576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N45" authorId="0">
+    <comment ref="N45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -605,7 +602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N46" authorId="0">
+    <comment ref="N46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -636,10 +633,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3893" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3893" uniqueCount="654">
   <si>
     <t>产品策划序列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>技术序列</t>
@@ -649,7 +646,7 @@
     <rPh sb="2" eb="3">
       <t>xu lie</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>生产管理序列</t>
@@ -659,7 +656,7 @@
     <rPh sb="7" eb="8">
       <t>xu l</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>市场与公共关系序列</t>
@@ -690,7 +687,7 @@
     <rPh sb="2" eb="3">
       <t>ming</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>编号（sequence字段）</t>
@@ -700,29 +697,29 @@
     <rPh sb="11" eb="12">
       <t>zi duan</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>字段</t>
     <rPh sb="0" eb="1">
       <t>zi duan</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>数据库id</t>
     <rPh sb="0" eb="1">
       <t>shu ju k</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>position</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>员工编号</t>
@@ -1005,7 +1002,7 @@
   </si>
   <si>
     <t>jingyec</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhixing</t>
@@ -1015,7 +1012,7 @@
   </si>
   <si>
     <t>制度意识1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>shichangdaoxiang</t>
@@ -1112,7 +1109,7 @@
     <rPh sb="9" eb="10">
       <t>xu l</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>普通员工-技术序列</t>
@@ -1122,7 +1119,7 @@
     <rPh sb="2" eb="3">
       <t>yuan gong</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分析判断</t>
@@ -1222,184 +1219,184 @@
   </si>
   <si>
     <t>制度意识3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>普通员工-客户服务与支持</t>
     <rPh sb="0" eb="1">
       <t>pu tong yuan gong</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>员工编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>所在处室</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>绩效回溯等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>学历</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>工作年限（年）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>行业经验（年）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>专业经验（年）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>管理经验（年）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>基础能力总分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>认知特征总分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>潜质等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>潜质得分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>总区间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>敬业</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>敬业优势标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>敬业待发展标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>敬业1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>敬业2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>敬业3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>敬业4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>执行优势标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>执行待发展标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>执行1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>执行2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>执行3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>执行4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>客户导向</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>客户导向优势标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>客户导向待发展标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>客户导向1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>客户导向2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>客户导向3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>客户导向4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>制度意识</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>制度意识优势标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>制度意识待发展标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>制度意识
 1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>制度意识2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>制度意识
 3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>制度意识4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分析判断2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务精神</t>
@@ -1415,7 +1412,7 @@
   </si>
   <si>
     <t>服务精神2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务精神3</t>
@@ -1437,7 +1434,7 @@
   </si>
   <si>
     <t>人际交往2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>人际交往3</t>
@@ -1447,27 +1444,27 @@
   </si>
   <si>
     <t>沟通协调2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>胜任力总分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【平均分】客户导向</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【平均分】制度意识</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【平均分】服务精神</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【平均分】人际交往</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务精神2</t>
@@ -1489,15 +1486,15 @@
     <rPh sb="2" eb="3">
       <t>yuan gong</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>认知特征序列内排名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>潜质序列内排名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>责任心</t>
@@ -1537,38 +1534,38 @@
   </si>
   <si>
     <t>胜任力序列内排名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【平均分】责任心</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【平均分】条理性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【平均分】执行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>执行优势标记</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>执行待发展标记</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>普通员工-市场与公共关系序列</t>
     <rPh sb="0" eb="1">
       <t>pu tong yuan gong</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>市场导向2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>关系建立</t>
@@ -1584,7 +1581,7 @@
   </si>
   <si>
     <t>关系建立2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>关系建立3</t>
@@ -1606,101 +1603,101 @@
   </si>
   <si>
     <t>资源整合2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>资源整合3</t>
   </si>
   <si>
     <t>资源整合4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【平均分】市场导向</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【平均分】关系建立</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【平均分】资源整合</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>前沿追踪2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>系统思维2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>系统思维4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【平均分】沟通协调</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【平均分】前沿追踪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【平均分】系统思维</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>学习发展2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>关注细节2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>行动力2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>行动力4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【平均分】分析判断</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【平均分】学习发展</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【平均分】关注细节</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【平均分】行动力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分析判断1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>责任心1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>条理性1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>普通员工-销售序列</t>
     <rPh sb="0" eb="1">
       <t>pu toong yuan gong</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>绩效导向</t>
@@ -1725,7 +1722,7 @@
   </si>
   <si>
     <t>【平均分】绩效导向</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>关系建立2</t>
@@ -1771,7 +1768,7 @@
   </si>
   <si>
     <t>【平均分】成就导向</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>普通员工—质量序列</t>
@@ -1805,14 +1802,14 @@
   </si>
   <si>
     <t>【平均分】专业化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>普通员工—财务</t>
   </si>
   <si>
     <t>分析判断</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>条理性2</t>
@@ -1852,187 +1849,187 @@
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>office</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>education</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>cognitionScore</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>cognitionRanking</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>potentialScore</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>potentialRanking</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>interval</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>jingye</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>jingyeyoushibiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>jingyedaifazhanbiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>jingyea</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>jingyeb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>jingyed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhixingyoushibiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhixingdaifazhanbiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhixinga</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhixingb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhixingc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhixingd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>kehudaoxiang</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>kehudaoxiangysbj</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>kehudaoxiangdfzbj</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>kehudaoxianga</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>kehudaoxiangc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>kehudaoxiangd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhiduyishi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhiduyishiyoushibiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhiduyishidaifazhanbiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhiduyishia</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhiduyishib</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhiduyishic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhiduyishid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>shichangdaoxiangb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>goutongxietiaob</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>qianyanzhuizongb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>xitongsiweib</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>xitongsiweid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>shengrenliScore</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>shengrenliRanking</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>kehudaoxiangAverage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhiduyishiAverage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>shichangdaoxiangAverage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>goutongxietiaoAverage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>qianyanzhuizongAverage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>xitongsiweiAverage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>普通员工</t>
@@ -2042,7 +2039,7 @@
     <rPh sb="2" eb="3">
       <t>yuan gong</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>基层管理</t>
@@ -2052,87 +2049,87 @@
     <rPh sb="2" eb="3">
       <t>guan li</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>jichutiaojianjicengguanliRanking</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>基础条件基层管理排名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>基础能力序列内排名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>认知特征基层管理排名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>潜质基层管理排名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>指导与监控</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>指导与监控优势标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>指导与监控发展标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>指导与监控1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>指导与监控2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>指导与监控3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>指导与监控4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>激励</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>激励优势标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>激励待发展标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>激励1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>激励2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>激励3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>激励4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>胜任力基层管理排名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【平均分】以客户为中心</t>
@@ -2145,7 +2142,7 @@
     <rPh sb="5" eb="6">
       <t>ji li</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhidaoyujiankong</t>
@@ -2158,111 +2155,107 @@
   </si>
   <si>
     <t>zhidaoyujiankongyoushibiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhidaoyujiankongfazhanbiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhidaoyujiankonga</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhidaoyujiankongb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhidaoyujiankongc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhidaoyujiankongd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>jili</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>jiliyoushibiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>jilidaifazhanbiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>jilia</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>jilib</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>jilic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>jilid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>jingyeAverage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhixingAverage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>kehuweizhongxinAverage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>基层管理—产品策划</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>基层管理-技术序列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>基层管理-客户服务与支持</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>基层管理-生产管理序列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>基层管理-市场与公共关系序列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>基层管理-销售序列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>基层管理—研发序列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>基层管理—质量序列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>基层管理—专业支持序列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>基层管理—财务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>基层管理—采购</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【平均分】激励</t>
@@ -2275,175 +2268,175 @@
     <rPh sb="2" eb="3">
       <t>guan li</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>中层管理-技术序列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>中层管理-客户服务与支持</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>中层管理-生产管理序列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>中层管理-市场与公共关系序列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>中层管理-销售序列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>中层管理—研发序列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>中层管理—质量序列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>中层管理—专业支持序列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>中层管理—财务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>中层管理—采购</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>基础条件序列内排名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>基础能力序列排名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>认知特征中层排名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>潜质中层排名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>培养他人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>培养他人优势标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>培养他人发展标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>培养他人1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>培养他人2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>培养他人3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>培养他人4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>沟通协调</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>沟通协调标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>沟通协调展标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>沟通协调1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>沟通协调3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>沟通协调4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>制度构建与优化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>制度构建与优化势标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>制度构建与优化发展标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>制度构建与优化1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>制度构建与优化2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>制度构建与优化3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>制度构建与优化4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>全局观念</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>全局观念优势标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>全局观念发展标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>全局观念1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>全局观念2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>全局观念3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>全局观念4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>胜任力序列排名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>【平均分】培养他人</t>
@@ -2456,7 +2449,7 @@
   </si>
   <si>
     <t>conditionRanking</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>peiyangtaren</t>
@@ -2549,7 +2542,7 @@
       </rPr>
       <t>outongxietiaoAverage</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>qianyanzhuizongAverage</t>
@@ -2568,7 +2561,7 @@
   </si>
   <si>
     <t>【平均分】全局观念</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>中层管理</t>
@@ -2578,7 +2571,7 @@
     <rPh sb="2" eb="3">
       <t>guan li</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>后备干部</t>
@@ -2588,39 +2581,39 @@
     <rPh sb="2" eb="3">
       <t>gan bu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>宏观思维平均分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>信息分析平均分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>操作体验平均分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>执行计划平均分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>推动他人平均分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>人际交往平均分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>人际理解平均分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>指导他人平均分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ReserveCadres-后备干部</t>
@@ -2630,7 +2623,7 @@
     <rPh sb="16" eb="17">
       <t>gan b</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>sequence</t>
@@ -2640,7 +2633,7 @@
     <rPh sb="0" eb="1">
       <t>wu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Staff-普通员工
@@ -2654,7 +2647,7 @@
     <rPh sb="8" eb="9">
       <t>yuan gong</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2666,7 +2659,7 @@
     <rPh sb="20" eb="21">
       <t>guan li</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2678,7 +2671,7 @@
     <rPh sb="17" eb="18">
       <t>guan li</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>后备人才</t>
@@ -2688,415 +2681,415 @@
     <rPh sb="2" eb="3">
       <t>ren cai</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>peiyangtarenc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>performanceLevel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>workYears</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>industryYears</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>professionalYears</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>managementYears</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>potentialLevel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>potentialReserveRanking</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>hongguansiwei</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>hongguansiweiyoushibiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>hongguansiweidaifazhanbiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>xinxifenxi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>xinxifenxiyoushibiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>xinxifenxidaifazhanbiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>caozuojingyan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>caozuojingyanyoushibiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>caozuojingyandaifazhanbiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhixingjihua</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhixingjihuayoushibiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhixingjihuadaifazhanbiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>tuidongtaren</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>tuidongtarenyoushibiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>tuidongtarendaifazhanbiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>renjijiaowang</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>renjijiaowangyoushibiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>renjijiaowangdaifazhanbiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>renjilijie</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>renjilijieyoushibiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>renjilijiedaifazhanbiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhidaotaren</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhidaotarenyoushibiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhidaotarendaifazhanbiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhidaoyujiankongyoushi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhidaoyujiankongdaifazhanbiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>jili</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>jilib</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>peiyangtaren</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>peiyangtarenyoushibiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>peiyangtarenfazhanbiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>peiyangtarena</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>peiyangtarenb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>peiyangtarend</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>goutongxietiao</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>goutongxietiaoyoushibiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>goutongxietiaodaifazhanbiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>goutongxietiaoa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>goutongxietiaoc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>goutongxietiaod</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhidugoujianyouhua</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhidugoujianyouhuayoushibiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhidugoujianyouhuadaifazhanbiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhidugoujianyouhuaa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhidugoujianyouhuab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhidugoujianyouhuac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhidugoujianyouhuad</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>quanjuguannian</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>quanjuguannianyoushibiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>quanjuguanniandaifazhanbiaoji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>quanjuguanniana</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>quanjuguannianb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>quanjuguannianc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>quanjuguanniand</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>hongguansiweiAverage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>xinxifenxiAverage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>caozuotiyanAverage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhixingjihuaAverage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>tuidongtarenAverage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>renjijiaowangAverage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>renjilijieAverage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhidaorarenAverage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>部门</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>潜质后备干部内排名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>宏观思维</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>宏观思维优势标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>宏观思维待发展标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>信息分析</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>信息分析优势标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>信息分析待发展标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>操作经验</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>操作经验优势标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>操作经验待发展标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>执行计划</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>执行计划
 优势标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>执行计划
 待发展标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>推动他人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>推动他人
 优势标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>推动他人
 待发展标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>人际交往</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>人际交往优势标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>人际交往待发展标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>人际理解</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>人际理解优势标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>人际理解待发展标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>指导他人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>指导他人优势标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>指导他人待发展标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>指导与监控优势</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>全局观念标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>全局观念展标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>管理胜任力总分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>管理胜任力后给干部内排名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>http://121.43.117.76:8888/excel_report/get/0100740?jsonpCallback=data</t>
@@ -3120,7 +3113,7 @@
       </rPr>
       <t>outongxietiao</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3143,7 +3136,7 @@
       </rPr>
       <t>tongxietiao</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3166,7 +3159,7 @@
       </rPr>
       <t>tongxietiaoyoushibiaoji</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3189,7 +3182,7 @@
       </rPr>
       <t>tongxietiaodaifazhanbiaoji</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3212,7 +3205,7 @@
       </rPr>
       <t>tongxietiaoa</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3235,7 +3228,7 @@
       </rPr>
       <t>tongxietiaob</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3258,7 +3251,7 @@
       </rPr>
       <t>tongxietiaoc</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3281,7 +3274,7 @@
       </rPr>
       <t>tongxietiaod</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3293,9 +3286,17 @@
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
@@ -3629,134 +3630,134 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3789,18 +3790,34 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="20" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="177" fontId="21" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="177" fontId="22" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="23" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="177" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4923,6 +4940,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -5196,15 +5216,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -5242,7 +5262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -5281,7 +5301,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5290,41 +5310,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DQ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CE24" workbookViewId="0">
-      <selection activeCell="CO35" sqref="CO35"/>
+    <sheetView tabSelected="1" topLeftCell="CM13" workbookViewId="0">
+      <selection activeCell="CT17" sqref="CT17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="3" max="4" width="29.1640625" customWidth="1"/>
-    <col min="47" max="48" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
+    <col min="3" max="4" width="29.125" customWidth="1"/>
+    <col min="47" max="48" width="13.625" customWidth="1"/>
     <col min="53" max="53" width="24.5" customWidth="1"/>
-    <col min="54" max="54" width="28.6640625" customWidth="1"/>
-    <col min="88" max="88" width="36.1640625" customWidth="1"/>
-    <col min="89" max="89" width="51.6640625" customWidth="1"/>
-    <col min="98" max="98" width="27.1640625" customWidth="1"/>
-    <col min="102" max="102" width="34.1640625" customWidth="1"/>
+    <col min="54" max="54" width="28.625" customWidth="1"/>
+    <col min="84" max="84" width="17.5" customWidth="1"/>
+    <col min="88" max="88" width="36.125" customWidth="1"/>
+    <col min="89" max="89" width="51.625" customWidth="1"/>
+    <col min="97" max="97" width="14.25" customWidth="1"/>
+    <col min="98" max="98" width="27.125" customWidth="1"/>
+    <col min="99" max="99" width="15.75" customWidth="1"/>
+    <col min="100" max="100" width="17.5" customWidth="1"/>
+    <col min="102" max="102" width="34.125" customWidth="1"/>
     <col min="103" max="103" width="30.5" customWidth="1"/>
-    <col min="104" max="104" width="29.83203125" customWidth="1"/>
-    <col min="105" max="105" width="29.33203125" customWidth="1"/>
-    <col min="111" max="111" width="25.1640625" customWidth="1"/>
+    <col min="104" max="104" width="29.875" customWidth="1"/>
+    <col min="105" max="105" width="29.375" customWidth="1"/>
+    <col min="111" max="111" width="25.125" customWidth="1"/>
     <col min="112" max="112" width="22" customWidth="1"/>
     <col min="113" max="113" width="27.5" customWidth="1"/>
-    <col min="114" max="114" width="23.1640625" customWidth="1"/>
-    <col min="115" max="115" width="21.6640625" customWidth="1"/>
-    <col min="116" max="116" width="25.83203125" customWidth="1"/>
+    <col min="114" max="114" width="23.125" customWidth="1"/>
+    <col min="115" max="115" width="21.625" customWidth="1"/>
+    <col min="116" max="116" width="25.875" customWidth="1"/>
     <col min="117" max="117" width="32.5" customWidth="1"/>
-    <col min="118" max="118" width="31.33203125" customWidth="1"/>
+    <col min="118" max="118" width="31.375" customWidth="1"/>
     <col min="121" max="121" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" ht="23.25">
       <c r="M1" s="31" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="2" spans="1:89" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:89" ht="48.95" customHeight="1">
       <c r="A2" s="54" t="s">
         <v>13</v>
       </c>
@@ -5335,7 +5359,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>99</v>
@@ -5574,7 +5598,7 @@
       <c r="CE2" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="CF2" s="26" t="s">
+      <c r="CF2" s="68" t="s">
         <v>388</v>
       </c>
       <c r="CG2" s="26" t="s">
@@ -5593,7 +5617,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:89" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:89" ht="65.099999999999994" customHeight="1">
       <c r="A3" s="54" t="s">
         <v>140</v>
       </c>
@@ -5601,7 +5625,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D3" s="55">
         <v>1</v>
@@ -5862,7 +5886,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:89" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:89" ht="41.1" customHeight="1">
       <c r="A4" s="54" t="s">
         <v>141</v>
       </c>
@@ -6127,7 +6151,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:89" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:89" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="54" t="s">
         <v>175</v>
       </c>
@@ -6392,7 +6416,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:89" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:89" ht="33">
       <c r="A6" s="54" t="s">
         <v>242</v>
       </c>
@@ -6657,7 +6681,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:89" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:89" ht="33">
       <c r="A7" s="54" t="s">
         <v>263</v>
       </c>
@@ -6922,7 +6946,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="1:89" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:89" ht="30.95" customHeight="1">
       <c r="A8" s="54" t="s">
         <v>299</v>
       </c>
@@ -7187,7 +7211,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="9" spans="1:89" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:89" ht="33">
       <c r="A9" s="54" t="s">
         <v>314</v>
       </c>
@@ -7452,7 +7476,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:89" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:89" ht="33">
       <c r="A10" s="54" t="s">
         <v>323</v>
       </c>
@@ -7717,7 +7741,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:89" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:89" ht="33">
       <c r="A11" s="54" t="s">
         <v>325</v>
       </c>
@@ -7982,7 +8006,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:89" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:89" ht="33">
       <c r="A12" s="54" t="s">
         <v>334</v>
       </c>
@@ -8247,7 +8271,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:89" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:89" ht="33">
       <c r="A13" s="54" t="s">
         <v>339</v>
       </c>
@@ -8512,12 +8536,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:89" ht="23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89" ht="23.25">
       <c r="M16" s="31" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="17" spans="1:106" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:106" ht="49.5">
       <c r="A17" s="54" t="s">
         <v>13</v>
       </c>
@@ -8528,7 +8552,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="57" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>99</v>
@@ -8810,18 +8834,18 @@
         <v>436</v>
       </c>
       <c r="CT17" s="20" t="s">
-        <v>437</v>
-      </c>
-      <c r="CU17" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="CU17" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="CV17" s="26" t="s">
+      <c r="CV17" s="65" t="s">
         <v>390</v>
       </c>
-      <c r="CW17" s="26" t="s">
+      <c r="CW17" s="65" t="s">
         <v>391</v>
       </c>
-      <c r="CX17" s="26" t="s">
+      <c r="CX17" s="65" t="s">
         <v>392</v>
       </c>
       <c r="CY17" s="26" t="s">
@@ -8834,15 +8858,15 @@
         <v>421</v>
       </c>
     </row>
-    <row r="18" spans="1:106" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:106" ht="63.95" customHeight="1">
       <c r="A18" s="54" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B18" s="52" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D18" s="55">
         <v>1</v>
@@ -9120,25 +9144,25 @@
       <c r="CQ18" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="CR18" s="34" t="s">
+      <c r="CR18" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="CS18" s="34" t="s">
+      <c r="CS18" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="CT18" s="34" t="s">
+      <c r="CT18" s="63" t="s">
         <v>416</v>
       </c>
-      <c r="CU18" s="34" t="s">
+      <c r="CU18" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="CV18" s="34" t="s">
+      <c r="CV18" s="63" t="s">
         <v>279</v>
       </c>
-      <c r="CW18" s="34" t="s">
+      <c r="CW18" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="CX18" s="34" t="s">
+      <c r="CX18" s="63" t="s">
         <v>97</v>
       </c>
       <c r="CY18" s="34" t="s">
@@ -9151,9 +9175,9 @@
         <v>418</v>
       </c>
     </row>
-    <row r="19" spans="1:106" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:106" ht="33">
       <c r="A19" s="54" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B19" s="52"/>
       <c r="C19" s="55"/>
@@ -9433,25 +9457,25 @@
       <c r="CQ19" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="CR19" s="22" t="s">
+      <c r="CR19" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="CS19" s="22" t="s">
+      <c r="CS19" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="CT19" s="22" t="s">
+      <c r="CT19" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="CU19" s="22" t="s">
+      <c r="CU19" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="CV19" s="22" t="s">
+      <c r="CV19" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="CW19" s="22" t="s">
+      <c r="CW19" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="CX19" s="22" t="s">
+      <c r="CX19" s="64" t="s">
         <v>172</v>
       </c>
       <c r="CY19" s="22" t="s">
@@ -9461,13 +9485,13 @@
         <v>417</v>
       </c>
       <c r="DA19" s="23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="DB19" s="27"/>
     </row>
-    <row r="20" spans="1:106" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:106" ht="33">
       <c r="A20" s="54" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B20" s="52"/>
       <c r="C20" s="55"/>
@@ -9747,25 +9771,25 @@
       <c r="CQ20" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="CR20" s="22" t="s">
+      <c r="CR20" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="CS20" s="22" t="s">
+      <c r="CS20" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="CT20" s="22" t="s">
+      <c r="CT20" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="CU20" s="22" t="s">
+      <c r="CU20" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="CV20" s="22" t="s">
+      <c r="CV20" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="CW20" s="22" t="s">
+      <c r="CW20" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="CX20" s="22" t="s">
+      <c r="CX20" s="64" t="s">
         <v>236</v>
       </c>
       <c r="CY20" s="22" t="s">
@@ -9775,12 +9799,12 @@
         <v>417</v>
       </c>
       <c r="DA20" s="23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
-    <row r="21" spans="1:106" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:106" ht="33">
       <c r="A21" s="54" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B21" s="52"/>
       <c r="C21" s="55"/>
@@ -10060,25 +10084,25 @@
       <c r="CQ21" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="CR21" s="26" t="s">
+      <c r="CR21" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="CS21" s="26" t="s">
+      <c r="CS21" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="CT21" s="26" t="s">
+      <c r="CT21" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="CU21" s="26" t="s">
+      <c r="CU21" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="CV21" s="26" t="s">
+      <c r="CV21" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="CW21" s="26" t="s">
+      <c r="CW21" s="65" t="s">
         <v>258</v>
       </c>
-      <c r="CX21" s="26" t="s">
+      <c r="CX21" s="65" t="s">
         <v>259</v>
       </c>
       <c r="CY21" s="26" t="s">
@@ -10088,12 +10112,12 @@
         <v>417</v>
       </c>
       <c r="DA21" s="39" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
-    <row r="22" spans="1:106" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:106" ht="33">
       <c r="A22" s="54" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B22" s="52"/>
       <c r="C22" s="55"/>
@@ -10373,25 +10397,25 @@
       <c r="CQ22" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="CR22" s="22" t="s">
+      <c r="CR22" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="CS22" s="22" t="s">
+      <c r="CS22" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="CT22" s="22" t="s">
+      <c r="CT22" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="CU22" s="22" t="s">
+      <c r="CU22" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="CV22" s="22" t="s">
+      <c r="CV22" s="64" t="s">
         <v>279</v>
       </c>
-      <c r="CW22" s="22" t="s">
+      <c r="CW22" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="CX22" s="22" t="s">
+      <c r="CX22" s="64" t="s">
         <v>280</v>
       </c>
       <c r="CY22" s="22" t="s">
@@ -10401,12 +10425,12 @@
         <v>417</v>
       </c>
       <c r="DA22" s="39" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
-    <row r="23" spans="1:106" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:106" ht="33">
       <c r="A23" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B23" s="52"/>
       <c r="C23" s="55"/>
@@ -10686,25 +10710,25 @@
       <c r="CQ23" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="CR23" s="22" t="s">
+      <c r="CR23" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="CS23" s="22" t="s">
+      <c r="CS23" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="CT23" s="22" t="s">
+      <c r="CT23" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="CU23" s="22" t="s">
+      <c r="CU23" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="CV23" s="22" t="s">
+      <c r="CV23" s="64" t="s">
         <v>307</v>
       </c>
-      <c r="CW23" s="22" t="s">
+      <c r="CW23" s="64" t="s">
         <v>295</v>
       </c>
-      <c r="CX23" s="22" t="s">
+      <c r="CX23" s="64" t="s">
         <v>280</v>
       </c>
       <c r="CY23" s="22" t="s">
@@ -10714,12 +10738,12 @@
         <v>417</v>
       </c>
       <c r="DA23" s="39" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
-    <row r="24" spans="1:106" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:106" ht="33">
       <c r="A24" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B24" s="52"/>
       <c r="C24" s="55"/>
@@ -10999,25 +11023,25 @@
       <c r="CQ24" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="CR24" s="26" t="s">
+      <c r="CR24" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="CS24" s="26" t="s">
+      <c r="CS24" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="CT24" s="26" t="s">
+      <c r="CT24" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="CU24" s="26" t="s">
+      <c r="CU24" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="CV24" s="26" t="s">
+      <c r="CV24" s="65" t="s">
         <v>279</v>
       </c>
-      <c r="CW24" s="26" t="s">
+      <c r="CW24" s="65" t="s">
         <v>322</v>
       </c>
-      <c r="CX24" s="26" t="s">
+      <c r="CX24" s="65" t="s">
         <v>293</v>
       </c>
       <c r="CY24" s="26" t="s">
@@ -11027,12 +11051,12 @@
         <v>417</v>
       </c>
       <c r="DA24" s="39" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
-    <row r="25" spans="1:106" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:106" ht="33">
       <c r="A25" s="54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B25" s="52"/>
       <c r="C25" s="55"/>
@@ -11312,25 +11336,25 @@
       <c r="CQ25" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="CR25" s="22" t="s">
+      <c r="CR25" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="CS25" s="22" t="s">
+      <c r="CS25" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="CT25" s="22" t="s">
+      <c r="CT25" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="CU25" s="22" t="s">
+      <c r="CU25" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="CV25" s="22" t="s">
+      <c r="CV25" s="64" t="s">
         <v>294</v>
       </c>
-      <c r="CW25" s="22" t="s">
+      <c r="CW25" s="64" t="s">
         <v>292</v>
       </c>
-      <c r="CX25" s="22" t="s">
+      <c r="CX25" s="64" t="s">
         <v>258</v>
       </c>
       <c r="CY25" s="22" t="s">
@@ -11340,12 +11364,12 @@
         <v>417</v>
       </c>
       <c r="DA25" s="39" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
-    <row r="26" spans="1:106" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:106" ht="33">
       <c r="A26" s="54" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B26" s="52"/>
       <c r="C26" s="55"/>
@@ -11625,25 +11649,25 @@
       <c r="CQ26" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="CR26" s="26" t="s">
+      <c r="CR26" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="CS26" s="26" t="s">
+      <c r="CS26" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="CT26" s="26" t="s">
+      <c r="CT26" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="CU26" s="26" t="s">
+      <c r="CU26" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="CV26" s="26" t="s">
+      <c r="CV26" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="CW26" s="26" t="s">
+      <c r="CW26" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="CX26" s="26" t="s">
+      <c r="CX26" s="65" t="s">
         <v>285</v>
       </c>
       <c r="CY26" s="26" t="s">
@@ -11653,12 +11677,12 @@
         <v>417</v>
       </c>
       <c r="DA26" s="39" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
-    <row r="27" spans="1:106" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:106" ht="33">
       <c r="A27" s="54" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B27" s="52"/>
       <c r="C27" s="55"/>
@@ -11938,25 +11962,25 @@
       <c r="CQ27" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="CR27" s="28" t="s">
+      <c r="CR27" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="CS27" s="28" t="s">
+      <c r="CS27" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="CT27" s="28" t="s">
+      <c r="CT27" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="CU27" s="28" t="s">
+      <c r="CU27" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="CV27" s="28" t="s">
+      <c r="CV27" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="CW27" s="28" t="s">
+      <c r="CW27" s="65" t="s">
         <v>337</v>
       </c>
-      <c r="CX27" s="28" t="s">
+      <c r="CX27" s="65" t="s">
         <v>338</v>
       </c>
       <c r="CY27" s="28" t="s">
@@ -11966,12 +11990,12 @@
         <v>417</v>
       </c>
       <c r="DA27" s="41" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
-    <row r="28" spans="1:106" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:106" ht="33">
       <c r="A28" s="54" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B28" s="52"/>
       <c r="C28" s="55"/>
@@ -12251,25 +12275,25 @@
       <c r="CQ28" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="CR28" s="42" t="s">
+      <c r="CR28" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="CS28" s="42" t="s">
+      <c r="CS28" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="CT28" s="42" t="s">
+      <c r="CT28" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="CU28" s="42" t="s">
+      <c r="CU28" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="CV28" s="42" t="s">
+      <c r="CV28" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="CW28" s="42" t="s">
+      <c r="CW28" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="CX28" s="42" t="s">
+      <c r="CX28" s="66" t="s">
         <v>347</v>
       </c>
       <c r="CY28" s="42" t="s">
@@ -12279,15 +12303,15 @@
         <v>417</v>
       </c>
       <c r="DA28" s="23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
-    <row r="34" spans="1:121" ht="23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:121" ht="23.25">
       <c r="M34" s="31" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="35" spans="1:121" ht="48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:121" ht="49.5">
       <c r="A35" s="54" t="s">
         <v>13</v>
       </c>
@@ -12298,7 +12322,7 @@
         <v>16</v>
       </c>
       <c r="D35" s="57" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E35" s="29" t="s">
         <v>99</v>
@@ -12331,7 +12355,7 @@
         <v>105</v>
       </c>
       <c r="O35" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="P35" s="15" t="s">
         <v>107</v>
@@ -12463,25 +12487,25 @@
         <v>119</v>
       </c>
       <c r="BG35" s="59" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="BH35" s="60" t="s">
+        <v>587</v>
+      </c>
+      <c r="BI35" s="61" t="s">
         <v>588</v>
       </c>
-      <c r="BI35" s="61" t="s">
+      <c r="BJ35" s="61" t="s">
         <v>589</v>
-      </c>
-      <c r="BJ35" s="61" t="s">
-        <v>590</v>
       </c>
       <c r="BK35" s="61" t="s">
         <v>382</v>
       </c>
       <c r="BL35" s="61" t="s">
+        <v>590</v>
+      </c>
+      <c r="BM35" s="61" t="s">
         <v>591</v>
-      </c>
-      <c r="BM35" s="61" t="s">
-        <v>592</v>
       </c>
       <c r="BN35" s="19" t="s">
         <v>126</v>
@@ -12526,94 +12550,94 @@
         <v>385</v>
       </c>
       <c r="CB35" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="CC35" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="CC35" s="19" t="s">
+      <c r="CD35" s="19" t="s">
         <v>498</v>
       </c>
-      <c r="CD35" s="19" t="s">
+      <c r="CE35" s="19" t="s">
         <v>499</v>
       </c>
-      <c r="CE35" s="19" t="s">
+      <c r="CF35" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="CF35" s="19" t="s">
+      <c r="CG35" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="CG35" s="19" t="s">
+      <c r="CH35" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="CH35" s="19" t="s">
+      <c r="CI35" s="62" t="s">
+        <v>647</v>
+      </c>
+      <c r="CJ35" s="62" t="s">
+        <v>648</v>
+      </c>
+      <c r="CK35" s="62" t="s">
+        <v>649</v>
+      </c>
+      <c r="CL35" s="62" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM35" s="62" t="s">
+        <v>651</v>
+      </c>
+      <c r="CN35" s="62" t="s">
+        <v>652</v>
+      </c>
+      <c r="CO35" s="62" t="s">
+        <v>653</v>
+      </c>
+      <c r="CP35" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="CI35" s="62" t="s">
-        <v>648</v>
-      </c>
-      <c r="CJ35" s="62" t="s">
-        <v>649</v>
-      </c>
-      <c r="CK35" s="62" t="s">
-        <v>650</v>
-      </c>
-      <c r="CL35" s="62" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM35" s="62" t="s">
-        <v>652</v>
-      </c>
-      <c r="CN35" s="62" t="s">
-        <v>653</v>
-      </c>
-      <c r="CO35" s="62" t="s">
-        <v>654</v>
-      </c>
-      <c r="CP35" s="19" t="s">
+      <c r="CQ35" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="CQ35" s="19" t="s">
+      <c r="CR35" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="CR35" s="19" t="s">
+      <c r="CS35" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="CS35" s="19" t="s">
+      <c r="CT35" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="CT35" s="19" t="s">
+      <c r="CU35" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="CU35" s="19" t="s">
+      <c r="CV35" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="CV35" s="19" t="s">
+      <c r="CW35" s="19" t="s">
         <v>510</v>
       </c>
-      <c r="CW35" s="19" t="s">
+      <c r="CX35" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="CX35" s="19" t="s">
+      <c r="CY35" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="CY35" s="19" t="s">
+      <c r="CZ35" s="19" t="s">
         <v>513</v>
       </c>
-      <c r="CZ35" s="19" t="s">
+      <c r="DA35" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="DA35" s="19" t="s">
+      <c r="DB35" s="19" t="s">
         <v>515</v>
       </c>
-      <c r="DB35" s="19" t="s">
+      <c r="DC35" s="19" t="s">
         <v>516</v>
       </c>
-      <c r="DC35" s="19" t="s">
+      <c r="DD35" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="DD35" s="19" t="s">
+      <c r="DE35" s="19" t="s">
         <v>518</v>
-      </c>
-      <c r="DE35" s="19" t="s">
-        <v>519</v>
       </c>
       <c r="DF35" s="19" t="s">
         <v>435</v>
@@ -12622,7 +12646,7 @@
         <v>436</v>
       </c>
       <c r="DH35" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="DI35" s="19" t="s">
         <v>139</v>
@@ -12631,36 +12655,36 @@
         <v>390</v>
       </c>
       <c r="DK35" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="DL35" s="19" t="s">
         <v>521</v>
-      </c>
-      <c r="DL35" s="19" t="s">
-        <v>522</v>
       </c>
       <c r="DM35" s="19" t="s">
         <v>393</v>
       </c>
       <c r="DN35" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="DO35" s="19" t="s">
         <v>523</v>
       </c>
-      <c r="DO35" s="19" t="s">
+      <c r="DP35" s="19" t="s">
         <v>524</v>
       </c>
-      <c r="DP35" s="19" t="s">
+      <c r="DQ35" s="19" t="s">
         <v>525</v>
       </c>
-      <c r="DQ35" s="19" t="s">
-        <v>526</v>
-      </c>
     </row>
-    <row r="36" spans="1:121" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:121" ht="63.95" customHeight="1">
       <c r="A36" s="54" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B36" s="53" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D36" s="55">
         <v>1</v>
@@ -12696,19 +12720,19 @@
         <v>184</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P36" s="15" t="s">
         <v>185</v>
       </c>
       <c r="Q36" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="R36" s="15" t="s">
         <v>186</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T36" s="15" t="s">
         <v>187</v>
@@ -12717,7 +12741,7 @@
         <v>188</v>
       </c>
       <c r="V36" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="W36" s="15" t="s">
         <v>189</v>
@@ -12891,94 +12915,94 @@
         <v>89</v>
       </c>
       <c r="CB36" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="CC36" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="CC36" s="17" t="s">
+      <c r="CD36" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="CD36" s="17" t="s">
+      <c r="CE36" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="CE36" s="17" t="s">
+      <c r="CF36" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="CF36" s="17" t="s">
+      <c r="CG36" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="CG36" s="17" t="s">
+      <c r="CH36" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="CH36" s="17" t="s">
+      <c r="CI36" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="CI36" s="17" t="s">
+      <c r="CJ36" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="CJ36" s="17" t="s">
+      <c r="CK36" s="17" t="s">
         <v>473</v>
       </c>
-      <c r="CK36" s="17" t="s">
+      <c r="CL36" s="17" t="s">
         <v>474</v>
-      </c>
-      <c r="CL36" s="17" t="s">
-        <v>475</v>
       </c>
       <c r="CM36" s="17" t="s">
         <v>232</v>
       </c>
       <c r="CN36" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="CO36" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="CO36" s="17" t="s">
+      <c r="CP36" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="CP36" s="17" t="s">
+      <c r="CQ36" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="CQ36" s="17" t="s">
+      <c r="CR36" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="CR36" s="17" t="s">
+      <c r="CS36" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="CS36" s="17" t="s">
+      <c r="CT36" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="CT36" s="17" t="s">
+      <c r="CU36" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="CU36" s="17" t="s">
+      <c r="CV36" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="CV36" s="17" t="s">
+      <c r="CW36" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="CW36" s="17" t="s">
+      <c r="CX36" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="CX36" s="17" t="s">
+      <c r="CY36" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="CY36" s="17" t="s">
+      <c r="CZ36" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="CZ36" s="17" t="s">
+      <c r="DA36" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="DA36" s="17" t="s">
+      <c r="DB36" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="DB36" s="17" t="s">
+      <c r="DC36" s="17" t="s">
         <v>490</v>
-      </c>
-      <c r="DC36" s="17" t="s">
-        <v>491</v>
       </c>
       <c r="DD36" s="21" t="s">
         <v>233</v>
       </c>
       <c r="DE36" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="DF36" s="43" t="s">
         <v>92</v>
@@ -13005,21 +13029,21 @@
         <v>98</v>
       </c>
       <c r="DN36" s="43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="DO36" s="43" t="s">
         <v>96</v>
       </c>
       <c r="DP36" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="DQ36" s="44" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="37" spans="1:121" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:121" ht="33">
       <c r="A37" s="54" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B37" s="53"/>
       <c r="C37" s="55"/>
@@ -13057,19 +13081,19 @@
         <v>184</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P37" s="15" t="s">
         <v>185</v>
       </c>
       <c r="Q37" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="R37" s="15" t="s">
         <v>186</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T37" s="15" t="s">
         <v>187</v>
@@ -13078,7 +13102,7 @@
         <v>188</v>
       </c>
       <c r="V37" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="W37" s="15" t="s">
         <v>189</v>
@@ -13252,94 +13276,94 @@
         <v>169</v>
       </c>
       <c r="CB37" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="CC37" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="CC37" s="17" t="s">
+      <c r="CD37" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="CD37" s="17" t="s">
+      <c r="CE37" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="CE37" s="17" t="s">
+      <c r="CF37" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="CF37" s="17" t="s">
+      <c r="CG37" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="CG37" s="17" t="s">
+      <c r="CH37" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="CH37" s="17" t="s">
+      <c r="CI37" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="CI37" s="17" t="s">
+      <c r="CJ37" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="CJ37" s="17" t="s">
+      <c r="CK37" s="17" t="s">
         <v>473</v>
       </c>
-      <c r="CK37" s="17" t="s">
+      <c r="CL37" s="17" t="s">
         <v>474</v>
-      </c>
-      <c r="CL37" s="17" t="s">
-        <v>475</v>
       </c>
       <c r="CM37" s="17" t="s">
         <v>232</v>
       </c>
       <c r="CN37" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="CO37" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="CO37" s="17" t="s">
+      <c r="CP37" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="CP37" s="17" t="s">
+      <c r="CQ37" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="CQ37" s="17" t="s">
+      <c r="CR37" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="CR37" s="17" t="s">
+      <c r="CS37" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="CS37" s="17" t="s">
+      <c r="CT37" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="CT37" s="17" t="s">
+      <c r="CU37" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="CU37" s="17" t="s">
+      <c r="CV37" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="CV37" s="17" t="s">
+      <c r="CW37" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="CW37" s="17" t="s">
+      <c r="CX37" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="CX37" s="17" t="s">
+      <c r="CY37" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="CY37" s="17" t="s">
+      <c r="CZ37" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="CZ37" s="17" t="s">
+      <c r="DA37" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="DA37" s="17" t="s">
+      <c r="DB37" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="DB37" s="17" t="s">
+      <c r="DC37" s="17" t="s">
         <v>490</v>
-      </c>
-      <c r="DC37" s="17" t="s">
-        <v>491</v>
       </c>
       <c r="DD37" s="21" t="s">
         <v>233</v>
       </c>
       <c r="DE37" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="DF37" s="22" t="s">
         <v>92</v>
@@ -13366,21 +13390,21 @@
         <v>173</v>
       </c>
       <c r="DN37" s="23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="DO37" s="23" t="s">
         <v>96</v>
       </c>
       <c r="DP37" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="DQ37" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="DQ37" s="23" t="s">
-        <v>495</v>
-      </c>
     </row>
-    <row r="38" spans="1:121" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:121" ht="33">
       <c r="A38" s="54" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B38" s="53"/>
       <c r="C38" s="55"/>
@@ -13418,19 +13442,19 @@
         <v>184</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P38" s="15" t="s">
         <v>185</v>
       </c>
       <c r="Q38" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="R38" s="15" t="s">
         <v>186</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T38" s="15" t="s">
         <v>187</v>
@@ -13439,7 +13463,7 @@
         <v>188</v>
       </c>
       <c r="V38" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="W38" s="15" t="s">
         <v>189</v>
@@ -13613,94 +13637,94 @@
         <v>231</v>
       </c>
       <c r="CB38" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="CC38" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="CC38" s="17" t="s">
+      <c r="CD38" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="CD38" s="17" t="s">
+      <c r="CE38" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="CE38" s="17" t="s">
+      <c r="CF38" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="CF38" s="17" t="s">
+      <c r="CG38" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="CG38" s="17" t="s">
+      <c r="CH38" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="CH38" s="17" t="s">
+      <c r="CI38" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="CI38" s="17" t="s">
+      <c r="CJ38" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="CJ38" s="17" t="s">
+      <c r="CK38" s="17" t="s">
         <v>473</v>
       </c>
-      <c r="CK38" s="17" t="s">
+      <c r="CL38" s="17" t="s">
         <v>474</v>
-      </c>
-      <c r="CL38" s="17" t="s">
-        <v>475</v>
       </c>
       <c r="CM38" s="17" t="s">
         <v>232</v>
       </c>
       <c r="CN38" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="CO38" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="CO38" s="17" t="s">
+      <c r="CP38" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="CP38" s="17" t="s">
+      <c r="CQ38" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="CQ38" s="17" t="s">
+      <c r="CR38" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="CR38" s="17" t="s">
+      <c r="CS38" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="CS38" s="17" t="s">
+      <c r="CT38" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="CT38" s="17" t="s">
+      <c r="CU38" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="CU38" s="17" t="s">
+      <c r="CV38" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="CV38" s="17" t="s">
+      <c r="CW38" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="CW38" s="17" t="s">
+      <c r="CX38" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="CX38" s="17" t="s">
+      <c r="CY38" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="CY38" s="17" t="s">
+      <c r="CZ38" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="CZ38" s="17" t="s">
+      <c r="DA38" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="DA38" s="17" t="s">
+      <c r="DB38" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="DB38" s="17" t="s">
+      <c r="DC38" s="17" t="s">
         <v>490</v>
-      </c>
-      <c r="DC38" s="17" t="s">
-        <v>491</v>
       </c>
       <c r="DD38" s="21" t="s">
         <v>233</v>
       </c>
       <c r="DE38" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="DF38" s="22" t="s">
         <v>92</v>
@@ -13727,21 +13751,21 @@
         <v>237</v>
       </c>
       <c r="DN38" s="23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="DO38" s="23" t="s">
         <v>96</v>
       </c>
       <c r="DP38" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="DQ38" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="DQ38" s="23" t="s">
-        <v>495</v>
-      </c>
     </row>
-    <row r="39" spans="1:121" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:121" ht="32.1" customHeight="1">
       <c r="A39" s="54" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B39" s="53"/>
       <c r="C39" s="55"/>
@@ -13779,19 +13803,19 @@
         <v>184</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P39" s="15" t="s">
         <v>185</v>
       </c>
       <c r="Q39" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="R39" s="15" t="s">
         <v>186</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T39" s="15" t="s">
         <v>187</v>
@@ -13800,7 +13824,7 @@
         <v>188</v>
       </c>
       <c r="V39" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="W39" s="15" t="s">
         <v>189</v>
@@ -13974,94 +13998,94 @@
         <v>49</v>
       </c>
       <c r="CB39" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="CC39" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="CC39" s="17" t="s">
+      <c r="CD39" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="CD39" s="17" t="s">
+      <c r="CE39" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="CE39" s="17" t="s">
+      <c r="CF39" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="CF39" s="17" t="s">
+      <c r="CG39" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="CG39" s="17" t="s">
+      <c r="CH39" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="CH39" s="17" t="s">
+      <c r="CI39" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="CI39" s="17" t="s">
+      <c r="CJ39" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="CJ39" s="17" t="s">
+      <c r="CK39" s="17" t="s">
         <v>473</v>
       </c>
-      <c r="CK39" s="17" t="s">
+      <c r="CL39" s="17" t="s">
         <v>474</v>
-      </c>
-      <c r="CL39" s="17" t="s">
-        <v>475</v>
       </c>
       <c r="CM39" s="17" t="s">
         <v>232</v>
       </c>
       <c r="CN39" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="CO39" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="CO39" s="17" t="s">
+      <c r="CP39" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="CP39" s="17" t="s">
+      <c r="CQ39" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="CQ39" s="17" t="s">
+      <c r="CR39" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="CR39" s="17" t="s">
+      <c r="CS39" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="CS39" s="17" t="s">
+      <c r="CT39" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="CT39" s="17" t="s">
+      <c r="CU39" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="CU39" s="17" t="s">
+      <c r="CV39" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="CV39" s="17" t="s">
+      <c r="CW39" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="CW39" s="17" t="s">
+      <c r="CX39" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="CX39" s="17" t="s">
+      <c r="CY39" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="CY39" s="17" t="s">
+      <c r="CZ39" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="CZ39" s="17" t="s">
+      <c r="DA39" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="DA39" s="17" t="s">
+      <c r="DB39" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="DB39" s="17" t="s">
+      <c r="DC39" s="17" t="s">
         <v>490</v>
-      </c>
-      <c r="DC39" s="17" t="s">
-        <v>491</v>
       </c>
       <c r="DD39" s="21" t="s">
         <v>233</v>
       </c>
       <c r="DE39" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="DF39" s="22" t="s">
         <v>92</v>
@@ -14088,21 +14112,21 @@
         <v>260</v>
       </c>
       <c r="DN39" s="23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="DO39" s="23" t="s">
         <v>96</v>
       </c>
       <c r="DP39" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="DQ39" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="DQ39" s="23" t="s">
-        <v>495</v>
-      </c>
     </row>
-    <row r="40" spans="1:121" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:121" ht="33">
       <c r="A40" s="54" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B40" s="53"/>
       <c r="C40" s="55"/>
@@ -14140,19 +14164,19 @@
         <v>184</v>
       </c>
       <c r="O40" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P40" s="15" t="s">
         <v>185</v>
       </c>
       <c r="Q40" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="R40" s="15" t="s">
         <v>186</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T40" s="15" t="s">
         <v>187</v>
@@ -14161,7 +14185,7 @@
         <v>188</v>
       </c>
       <c r="V40" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="W40" s="15" t="s">
         <v>189</v>
@@ -14335,94 +14359,94 @@
         <v>278</v>
       </c>
       <c r="CB40" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="CC40" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="CC40" s="17" t="s">
+      <c r="CD40" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="CD40" s="17" t="s">
+      <c r="CE40" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="CE40" s="17" t="s">
+      <c r="CF40" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="CF40" s="17" t="s">
+      <c r="CG40" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="CG40" s="17" t="s">
+      <c r="CH40" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="CH40" s="17" t="s">
+      <c r="CI40" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="CI40" s="17" t="s">
+      <c r="CJ40" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="CJ40" s="17" t="s">
+      <c r="CK40" s="17" t="s">
         <v>473</v>
       </c>
-      <c r="CK40" s="17" t="s">
+      <c r="CL40" s="17" t="s">
         <v>474</v>
-      </c>
-      <c r="CL40" s="17" t="s">
-        <v>475</v>
       </c>
       <c r="CM40" s="17" t="s">
         <v>232</v>
       </c>
       <c r="CN40" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="CO40" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="CO40" s="17" t="s">
+      <c r="CP40" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="CP40" s="17" t="s">
+      <c r="CQ40" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="CQ40" s="17" t="s">
+      <c r="CR40" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="CR40" s="17" t="s">
+      <c r="CS40" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="CS40" s="17" t="s">
+      <c r="CT40" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="CT40" s="17" t="s">
+      <c r="CU40" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="CU40" s="17" t="s">
+      <c r="CV40" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="CV40" s="17" t="s">
+      <c r="CW40" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="CW40" s="17" t="s">
+      <c r="CX40" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="CX40" s="17" t="s">
+      <c r="CY40" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="CY40" s="17" t="s">
+      <c r="CZ40" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="CZ40" s="17" t="s">
+      <c r="DA40" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="DA40" s="17" t="s">
+      <c r="DB40" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="DB40" s="17" t="s">
+      <c r="DC40" s="17" t="s">
         <v>490</v>
-      </c>
-      <c r="DC40" s="17" t="s">
-        <v>491</v>
       </c>
       <c r="DD40" s="21" t="s">
         <v>233</v>
       </c>
       <c r="DE40" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="DF40" s="22" t="s">
         <v>92</v>
@@ -14449,21 +14473,21 @@
         <v>281</v>
       </c>
       <c r="DN40" s="23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="DO40" s="23" t="s">
         <v>96</v>
       </c>
       <c r="DP40" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="DQ40" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="DQ40" s="23" t="s">
-        <v>495</v>
-      </c>
     </row>
-    <row r="41" spans="1:121" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:121" ht="33">
       <c r="A41" s="54" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B41" s="53"/>
       <c r="C41" s="55"/>
@@ -14501,19 +14525,19 @@
         <v>184</v>
       </c>
       <c r="O41" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P41" s="15" t="s">
         <v>185</v>
       </c>
       <c r="Q41" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="R41" s="15" t="s">
         <v>186</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T41" s="15" t="s">
         <v>187</v>
@@ -14522,7 +14546,7 @@
         <v>188</v>
       </c>
       <c r="V41" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="W41" s="15" t="s">
         <v>189</v>
@@ -14696,94 +14720,94 @@
         <v>278</v>
       </c>
       <c r="CB41" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="CC41" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="CC41" s="17" t="s">
+      <c r="CD41" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="CD41" s="17" t="s">
+      <c r="CE41" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="CE41" s="17" t="s">
+      <c r="CF41" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="CF41" s="17" t="s">
+      <c r="CG41" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="CG41" s="17" t="s">
+      <c r="CH41" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="CH41" s="17" t="s">
+      <c r="CI41" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="CI41" s="19" t="s">
+      <c r="CJ41" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="CJ41" s="17" t="s">
+      <c r="CK41" s="17" t="s">
         <v>473</v>
       </c>
-      <c r="CK41" s="17" t="s">
+      <c r="CL41" s="17" t="s">
         <v>474</v>
-      </c>
-      <c r="CL41" s="17" t="s">
-        <v>475</v>
       </c>
       <c r="CM41" s="17" t="s">
         <v>232</v>
       </c>
       <c r="CN41" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="CO41" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="CO41" s="17" t="s">
+      <c r="CP41" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="CP41" s="19" t="s">
+      <c r="CQ41" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="CQ41" s="17" t="s">
+      <c r="CR41" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="CR41" s="17" t="s">
+      <c r="CS41" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="CS41" s="17" t="s">
+      <c r="CT41" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="CT41" s="17" t="s">
+      <c r="CU41" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="CU41" s="17" t="s">
+      <c r="CV41" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="CV41" s="17" t="s">
+      <c r="CW41" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="CW41" s="19" t="s">
+      <c r="CX41" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="CX41" s="17" t="s">
+      <c r="CY41" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="CY41" s="17" t="s">
+      <c r="CZ41" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="CZ41" s="17" t="s">
+      <c r="DA41" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="DA41" s="17" t="s">
+      <c r="DB41" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="DB41" s="17" t="s">
+      <c r="DC41" s="17" t="s">
         <v>490</v>
-      </c>
-      <c r="DC41" s="17" t="s">
-        <v>491</v>
       </c>
       <c r="DD41" s="21" t="s">
         <v>233</v>
       </c>
       <c r="DE41" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="DF41" s="22" t="s">
         <v>92</v>
@@ -14810,21 +14834,21 @@
         <v>281</v>
       </c>
       <c r="DN41" s="23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="DO41" s="23" t="s">
         <v>96</v>
       </c>
       <c r="DP41" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="DQ41" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="DQ41" s="23" t="s">
-        <v>495</v>
-      </c>
     </row>
-    <row r="42" spans="1:121" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:121" ht="33">
       <c r="A42" s="54" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B42" s="53"/>
       <c r="C42" s="55"/>
@@ -14862,19 +14886,19 @@
         <v>184</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P42" s="15" t="s">
         <v>185</v>
       </c>
       <c r="Q42" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="R42" s="15" t="s">
         <v>186</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T42" s="15" t="s">
         <v>187</v>
@@ -14883,7 +14907,7 @@
         <v>188</v>
       </c>
       <c r="V42" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="W42" s="15" t="s">
         <v>189</v>
@@ -15057,94 +15081,94 @@
         <v>82</v>
       </c>
       <c r="CB42" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="CC42" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="CC42" s="17" t="s">
+      <c r="CD42" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="CD42" s="17" t="s">
+      <c r="CE42" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="CE42" s="17" t="s">
+      <c r="CF42" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="CF42" s="17" t="s">
+      <c r="CG42" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="CG42" s="17" t="s">
+      <c r="CH42" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="CH42" s="17" t="s">
+      <c r="CI42" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="CI42" s="19" t="s">
+      <c r="CJ42" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="CJ42" s="17" t="s">
+      <c r="CK42" s="17" t="s">
         <v>473</v>
       </c>
-      <c r="CK42" s="17" t="s">
+      <c r="CL42" s="17" t="s">
         <v>474</v>
-      </c>
-      <c r="CL42" s="17" t="s">
-        <v>475</v>
       </c>
       <c r="CM42" s="17" t="s">
         <v>232</v>
       </c>
       <c r="CN42" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="CO42" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="CO42" s="17" t="s">
+      <c r="CP42" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="CP42" s="19" t="s">
+      <c r="CQ42" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="CQ42" s="17" t="s">
+      <c r="CR42" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="CR42" s="17" t="s">
+      <c r="CS42" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="CS42" s="17" t="s">
+      <c r="CT42" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="CT42" s="17" t="s">
+      <c r="CU42" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="CU42" s="17" t="s">
+      <c r="CV42" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="CV42" s="17" t="s">
+      <c r="CW42" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="CW42" s="19" t="s">
+      <c r="CX42" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="CX42" s="17" t="s">
+      <c r="CY42" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="CY42" s="17" t="s">
+      <c r="CZ42" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="CZ42" s="17" t="s">
+      <c r="DA42" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="DA42" s="17" t="s">
+      <c r="DB42" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="DB42" s="17" t="s">
+      <c r="DC42" s="17" t="s">
         <v>490</v>
-      </c>
-      <c r="DC42" s="17" t="s">
-        <v>491</v>
       </c>
       <c r="DD42" s="21" t="s">
         <v>233</v>
       </c>
       <c r="DE42" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="DF42" s="26" t="s">
         <v>92</v>
@@ -15171,21 +15195,21 @@
         <v>286</v>
       </c>
       <c r="DN42" s="23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="DO42" s="23" t="s">
         <v>96</v>
       </c>
       <c r="DP42" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="DQ42" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="DQ42" s="23" t="s">
-        <v>495</v>
-      </c>
     </row>
-    <row r="43" spans="1:121" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:121" ht="33">
       <c r="A43" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B43" s="53"/>
       <c r="C43" s="55"/>
@@ -15223,19 +15247,19 @@
         <v>184</v>
       </c>
       <c r="O43" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P43" s="15" t="s">
         <v>185</v>
       </c>
       <c r="Q43" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="R43" s="15" t="s">
         <v>186</v>
       </c>
       <c r="S43" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T43" s="15" t="s">
         <v>187</v>
@@ -15244,7 +15268,7 @@
         <v>188</v>
       </c>
       <c r="V43" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="W43" s="15" t="s">
         <v>189</v>
@@ -15418,94 +15442,94 @@
         <v>169</v>
       </c>
       <c r="CB43" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="CC43" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="CC43" s="17" t="s">
+      <c r="CD43" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="CD43" s="17" t="s">
+      <c r="CE43" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="CE43" s="17" t="s">
+      <c r="CF43" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="CF43" s="17" t="s">
+      <c r="CG43" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="CG43" s="17" t="s">
+      <c r="CH43" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="CH43" s="17" t="s">
+      <c r="CI43" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="CI43" s="19" t="s">
+      <c r="CJ43" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="CJ43" s="17" t="s">
+      <c r="CK43" s="17" t="s">
         <v>473</v>
       </c>
-      <c r="CK43" s="17" t="s">
+      <c r="CL43" s="17" t="s">
         <v>474</v>
-      </c>
-      <c r="CL43" s="17" t="s">
-        <v>475</v>
       </c>
       <c r="CM43" s="17" t="s">
         <v>232</v>
       </c>
       <c r="CN43" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="CO43" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="CO43" s="17" t="s">
+      <c r="CP43" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="CP43" s="19" t="s">
+      <c r="CQ43" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="CQ43" s="17" t="s">
+      <c r="CR43" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="CR43" s="17" t="s">
+      <c r="CS43" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="CS43" s="17" t="s">
+      <c r="CT43" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="CT43" s="17" t="s">
+      <c r="CU43" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="CU43" s="17" t="s">
+      <c r="CV43" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="CV43" s="17" t="s">
+      <c r="CW43" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="CW43" s="19" t="s">
+      <c r="CX43" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="CX43" s="17" t="s">
+      <c r="CY43" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="CY43" s="17" t="s">
+      <c r="CZ43" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="CZ43" s="17" t="s">
+      <c r="DA43" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="DA43" s="17" t="s">
+      <c r="DB43" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="DB43" s="17" t="s">
+      <c r="DC43" s="17" t="s">
         <v>490</v>
-      </c>
-      <c r="DC43" s="17" t="s">
-        <v>491</v>
       </c>
       <c r="DD43" s="21" t="s">
         <v>233</v>
       </c>
       <c r="DE43" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="DF43" s="22" t="s">
         <v>92</v>
@@ -15532,21 +15556,21 @@
         <v>295</v>
       </c>
       <c r="DN43" s="23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="DO43" s="23" t="s">
         <v>96</v>
       </c>
       <c r="DP43" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="DQ43" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="DQ43" s="23" t="s">
-        <v>495</v>
-      </c>
     </row>
-    <row r="44" spans="1:121" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:121" ht="33.75" thickBot="1">
       <c r="A44" s="54" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B44" s="53"/>
       <c r="C44" s="55"/>
@@ -15584,19 +15608,19 @@
         <v>184</v>
       </c>
       <c r="O44" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P44" s="15" t="s">
         <v>185</v>
       </c>
       <c r="Q44" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="R44" s="15" t="s">
         <v>186</v>
       </c>
       <c r="S44" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T44" s="15" t="s">
         <v>187</v>
@@ -15605,7 +15629,7 @@
         <v>188</v>
       </c>
       <c r="V44" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="W44" s="15" t="s">
         <v>189</v>
@@ -15779,25 +15803,25 @@
         <v>332</v>
       </c>
       <c r="CB44" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="CC44" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="CC44" s="17" t="s">
+      <c r="CD44" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="CD44" s="17" t="s">
+      <c r="CE44" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="CE44" s="17" t="s">
+      <c r="CF44" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="CF44" s="17" t="s">
+      <c r="CG44" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="CG44" s="17" t="s">
+      <c r="CH44" s="17" t="s">
         <v>470</v>
-      </c>
-      <c r="CH44" s="17" t="s">
-        <v>471</v>
       </c>
       <c r="CI44" s="19" t="s">
         <v>69</v>
@@ -15809,64 +15833,64 @@
         <v>71</v>
       </c>
       <c r="CL44" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="CM44" s="17" t="s">
         <v>232</v>
       </c>
       <c r="CN44" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="CO44" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="CO44" s="17" t="s">
+      <c r="CP44" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="CP44" s="19" t="s">
+      <c r="CQ44" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="CQ44" s="17" t="s">
+      <c r="CR44" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="CR44" s="17" t="s">
+      <c r="CS44" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="CS44" s="17" t="s">
+      <c r="CT44" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="CT44" s="17" t="s">
+      <c r="CU44" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="CU44" s="17" t="s">
+      <c r="CV44" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="CV44" s="17" t="s">
+      <c r="CW44" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="CW44" s="19" t="s">
+      <c r="CX44" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="CX44" s="17" t="s">
+      <c r="CY44" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="CY44" s="17" t="s">
+      <c r="CZ44" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="CZ44" s="17" t="s">
+      <c r="DA44" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="DA44" s="17" t="s">
+      <c r="DB44" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="DB44" s="17" t="s">
+      <c r="DC44" s="17" t="s">
         <v>490</v>
-      </c>
-      <c r="DC44" s="17" t="s">
-        <v>491</v>
       </c>
       <c r="DD44" s="21" t="s">
         <v>233</v>
       </c>
       <c r="DE44" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="DF44" s="26" t="s">
         <v>92</v>
@@ -15893,21 +15917,21 @@
         <v>333</v>
       </c>
       <c r="DN44" s="23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="DO44" s="23" t="s">
         <v>96</v>
       </c>
       <c r="DP44" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="DQ44" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="DQ44" s="23" t="s">
-        <v>495</v>
-      </c>
     </row>
-    <row r="45" spans="1:121" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:121" ht="33.75" thickBot="1">
       <c r="A45" s="54" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B45" s="53"/>
       <c r="C45" s="55"/>
@@ -15945,19 +15969,19 @@
         <v>184</v>
       </c>
       <c r="O45" s="45" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P45" s="45" t="s">
         <v>185</v>
       </c>
       <c r="Q45" s="45" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="R45" s="45" t="s">
         <v>186</v>
       </c>
       <c r="S45" s="45" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T45" s="45" t="s">
         <v>187</v>
@@ -15966,7 +15990,7 @@
         <v>188</v>
       </c>
       <c r="V45" s="46" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="W45" s="45" t="s">
         <v>189</v>
@@ -16140,94 +16164,94 @@
         <v>202</v>
       </c>
       <c r="CB45" s="47" t="s">
+        <v>464</v>
+      </c>
+      <c r="CC45" s="47" t="s">
         <v>465</v>
       </c>
-      <c r="CC45" s="47" t="s">
+      <c r="CD45" s="47" t="s">
         <v>466</v>
       </c>
-      <c r="CD45" s="47" t="s">
+      <c r="CE45" s="47" t="s">
         <v>467</v>
       </c>
-      <c r="CE45" s="47" t="s">
+      <c r="CF45" s="47" t="s">
         <v>468</v>
       </c>
-      <c r="CF45" s="47" t="s">
+      <c r="CG45" s="47" t="s">
         <v>469</v>
       </c>
-      <c r="CG45" s="47" t="s">
+      <c r="CH45" s="47" t="s">
         <v>470</v>
       </c>
-      <c r="CH45" s="47" t="s">
+      <c r="CI45" s="47" t="s">
         <v>471</v>
       </c>
-      <c r="CI45" s="47" t="s">
+      <c r="CJ45" s="47" t="s">
         <v>472</v>
       </c>
-      <c r="CJ45" s="47" t="s">
+      <c r="CK45" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="CK45" s="47" t="s">
+      <c r="CL45" s="47" t="s">
         <v>474</v>
-      </c>
-      <c r="CL45" s="47" t="s">
-        <v>475</v>
       </c>
       <c r="CM45" s="47" t="s">
         <v>232</v>
       </c>
       <c r="CN45" s="47" t="s">
+        <v>475</v>
+      </c>
+      <c r="CO45" s="47" t="s">
         <v>476</v>
       </c>
-      <c r="CO45" s="47" t="s">
+      <c r="CP45" s="47" t="s">
         <v>477</v>
       </c>
-      <c r="CP45" s="47" t="s">
+      <c r="CQ45" s="47" t="s">
         <v>478</v>
       </c>
-      <c r="CQ45" s="47" t="s">
+      <c r="CR45" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="CR45" s="47" t="s">
+      <c r="CS45" s="47" t="s">
         <v>480</v>
       </c>
-      <c r="CS45" s="47" t="s">
+      <c r="CT45" s="47" t="s">
         <v>481</v>
       </c>
-      <c r="CT45" s="47" t="s">
+      <c r="CU45" s="47" t="s">
         <v>482</v>
       </c>
-      <c r="CU45" s="47" t="s">
+      <c r="CV45" s="47" t="s">
         <v>483</v>
       </c>
-      <c r="CV45" s="47" t="s">
+      <c r="CW45" s="47" t="s">
         <v>484</v>
       </c>
-      <c r="CW45" s="47" t="s">
+      <c r="CX45" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="CX45" s="47" t="s">
+      <c r="CY45" s="47" t="s">
         <v>486</v>
       </c>
-      <c r="CY45" s="47" t="s">
+      <c r="CZ45" s="47" t="s">
         <v>487</v>
       </c>
-      <c r="CZ45" s="47" t="s">
+      <c r="DA45" s="47" t="s">
         <v>488</v>
       </c>
-      <c r="DA45" s="47" t="s">
+      <c r="DB45" s="47" t="s">
         <v>489</v>
       </c>
-      <c r="DB45" s="47" t="s">
+      <c r="DC45" s="47" t="s">
         <v>490</v>
-      </c>
-      <c r="DC45" s="47" t="s">
-        <v>491</v>
       </c>
       <c r="DD45" s="45" t="s">
         <v>233</v>
       </c>
       <c r="DE45" s="45" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="DF45" s="48" t="s">
         <v>92</v>
@@ -16254,21 +16278,21 @@
         <v>93</v>
       </c>
       <c r="DN45" s="49" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="DO45" s="49" t="s">
         <v>96</v>
       </c>
       <c r="DP45" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="DQ45" s="49" t="s">
         <v>494</v>
       </c>
-      <c r="DQ45" s="49" t="s">
-        <v>495</v>
-      </c>
     </row>
-    <row r="46" spans="1:121" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:121" ht="33">
       <c r="A46" s="54" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B46" s="53"/>
       <c r="C46" s="55"/>
@@ -16306,19 +16330,19 @@
         <v>184</v>
       </c>
       <c r="O46" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P46" s="15" t="s">
         <v>185</v>
       </c>
       <c r="Q46" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="R46" s="15" t="s">
         <v>186</v>
       </c>
       <c r="S46" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T46" s="15" t="s">
         <v>187</v>
@@ -16327,7 +16351,7 @@
         <v>188</v>
       </c>
       <c r="V46" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="W46" s="15" t="s">
         <v>189</v>
@@ -16501,94 +16525,94 @@
         <v>202</v>
       </c>
       <c r="CB46" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="CC46" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="CC46" s="17" t="s">
+      <c r="CD46" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="CD46" s="17" t="s">
+      <c r="CE46" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="CE46" s="17" t="s">
+      <c r="CF46" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="CF46" s="17" t="s">
+      <c r="CG46" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="CG46" s="17" t="s">
+      <c r="CH46" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="CH46" s="17" t="s">
+      <c r="CI46" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="CI46" s="17" t="s">
+      <c r="CJ46" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="CJ46" s="17" t="s">
+      <c r="CK46" s="17" t="s">
         <v>473</v>
       </c>
-      <c r="CK46" s="17" t="s">
+      <c r="CL46" s="17" t="s">
         <v>474</v>
-      </c>
-      <c r="CL46" s="17" t="s">
-        <v>475</v>
       </c>
       <c r="CM46" s="17" t="s">
         <v>232</v>
       </c>
       <c r="CN46" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="CO46" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="CO46" s="17" t="s">
+      <c r="CP46" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="CP46" s="17" t="s">
+      <c r="CQ46" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="CQ46" s="17" t="s">
+      <c r="CR46" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="CR46" s="17" t="s">
+      <c r="CS46" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="CS46" s="17" t="s">
+      <c r="CT46" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="CT46" s="17" t="s">
+      <c r="CU46" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="CU46" s="17" t="s">
+      <c r="CV46" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="CV46" s="17" t="s">
+      <c r="CW46" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="CW46" s="17" t="s">
+      <c r="CX46" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="CX46" s="17" t="s">
+      <c r="CY46" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="CY46" s="17" t="s">
+      <c r="CZ46" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="CZ46" s="17" t="s">
+      <c r="DA46" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="DA46" s="17" t="s">
+      <c r="DB46" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="DB46" s="17" t="s">
+      <c r="DC46" s="17" t="s">
         <v>490</v>
-      </c>
-      <c r="DC46" s="17" t="s">
-        <v>491</v>
       </c>
       <c r="DD46" s="15" t="s">
         <v>233</v>
       </c>
       <c r="DE46" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="DF46" s="43" t="s">
         <v>92</v>
@@ -16615,24 +16639,24 @@
         <v>93</v>
       </c>
       <c r="DN46" s="23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="DO46" s="23" t="s">
         <v>96</v>
       </c>
       <c r="DP46" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="DQ46" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="DQ46" s="23" t="s">
-        <v>495</v>
-      </c>
     </row>
-    <row r="51" spans="1:94" ht="23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:94" ht="23.25">
       <c r="M51" s="31" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
-    <row r="52" spans="1:94" ht="36" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:94" ht="36">
       <c r="A52" s="54" t="s">
         <v>13</v>
       </c>
@@ -16643,7 +16667,7 @@
         <v>16</v>
       </c>
       <c r="D52" s="56" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E52" s="29" t="s">
         <v>99</v>
@@ -16658,115 +16682,115 @@
         <v>349</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J52" s="13" t="s">
         <v>350</v>
       </c>
       <c r="K52" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="L52" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="L52" s="13" t="s">
+      <c r="M52" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="M52" s="13" t="s">
+      <c r="N52" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="N52" s="13" t="s">
+      <c r="O52" s="13" t="s">
         <v>550</v>
-      </c>
-      <c r="O52" s="13" t="s">
-        <v>551</v>
       </c>
       <c r="P52" s="13" t="s">
         <v>353</v>
       </c>
       <c r="Q52" s="13" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R52" s="13" t="s">
         <v>355</v>
       </c>
       <c r="S52" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="T52" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="T52" s="13" t="s">
+      <c r="U52" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="U52" s="13" t="s">
+      <c r="V52" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="V52" s="13" t="s">
+      <c r="W52" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="W52" s="13" t="s">
+      <c r="X52" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="X52" s="13" t="s">
+      <c r="Y52" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="Y52" s="13" t="s">
+      <c r="Z52" s="13" t="s">
         <v>559</v>
       </c>
-      <c r="Z52" s="13" t="s">
+      <c r="AA52" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="AA52" s="13" t="s">
+      <c r="AB52" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="AB52" s="13" t="s">
+      <c r="AC52" s="13" t="s">
         <v>562</v>
       </c>
-      <c r="AC52" s="13" t="s">
+      <c r="AD52" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="AD52" s="13" t="s">
+      <c r="AE52" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="AE52" s="13" t="s">
+      <c r="AF52" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="AF52" s="13" t="s">
+      <c r="AG52" s="13" t="s">
         <v>566</v>
       </c>
-      <c r="AG52" s="13" t="s">
+      <c r="AH52" s="13" t="s">
         <v>567</v>
       </c>
-      <c r="AH52" s="13" t="s">
+      <c r="AI52" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="AI52" s="13" t="s">
+      <c r="AJ52" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="AJ52" s="13" t="s">
+      <c r="AK52" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="AK52" s="13" t="s">
+      <c r="AL52" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="AL52" s="13" t="s">
+      <c r="AM52" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="AM52" s="13" t="s">
+      <c r="AN52" s="13" t="s">
         <v>573</v>
       </c>
-      <c r="AN52" s="13" t="s">
+      <c r="AO52" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="AO52" s="13" t="s">
+      <c r="AP52" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="AP52" s="13" t="s">
+      <c r="AQ52" s="13" t="s">
         <v>576</v>
-      </c>
-      <c r="AQ52" s="13" t="s">
-        <v>577</v>
       </c>
       <c r="AR52" s="13" t="s">
         <v>422</v>
       </c>
       <c r="AS52" s="13" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AT52" s="13" t="s">
         <v>424</v>
@@ -16781,7 +16805,7 @@
         <v>427</v>
       </c>
       <c r="AX52" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AY52" s="13" t="s">
         <v>429</v>
@@ -16793,7 +16817,7 @@
         <v>431</v>
       </c>
       <c r="BB52" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="BC52" s="13" t="s">
         <v>433</v>
@@ -16802,88 +16826,88 @@
         <v>434</v>
       </c>
       <c r="BE52" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="BF52" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="BF52" s="13" t="s">
+      <c r="BG52" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="BG52" s="13" t="s">
+      <c r="BH52" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="BH52" s="13" t="s">
+      <c r="BI52" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="BI52" s="13" t="s">
+      <c r="BJ52" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="BK52" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="BJ52" s="13" t="s">
-        <v>545</v>
-      </c>
-      <c r="BK52" s="13" t="s">
+      <c r="BL52" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="BL52" s="13" t="s">
+      <c r="BM52" s="13" t="s">
         <v>587</v>
       </c>
-      <c r="BM52" s="13" t="s">
+      <c r="BN52" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="BN52" s="13" t="s">
+      <c r="BO52" s="13" t="s">
         <v>589</v>
-      </c>
-      <c r="BO52" s="13" t="s">
-        <v>590</v>
       </c>
       <c r="BP52" s="13" t="s">
         <v>382</v>
       </c>
       <c r="BQ52" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="BR52" s="13" t="s">
         <v>591</v>
       </c>
-      <c r="BR52" s="13" t="s">
+      <c r="BS52" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="BS52" s="13" t="s">
+      <c r="BT52" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="BT52" s="13" t="s">
+      <c r="BU52" s="13" t="s">
         <v>594</v>
       </c>
-      <c r="BU52" s="13" t="s">
+      <c r="BV52" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="BV52" s="13" t="s">
+      <c r="BW52" s="13" t="s">
         <v>596</v>
       </c>
-      <c r="BW52" s="13" t="s">
+      <c r="BX52" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="BX52" s="13" t="s">
+      <c r="BY52" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="BY52" s="13" t="s">
+      <c r="BZ52" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="BZ52" s="13" t="s">
+      <c r="CA52" s="13" t="s">
         <v>600</v>
       </c>
-      <c r="CA52" s="13" t="s">
+      <c r="CB52" s="13" t="s">
         <v>601</v>
       </c>
-      <c r="CB52" s="13" t="s">
+      <c r="CC52" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="CC52" s="13" t="s">
+      <c r="CD52" s="13" t="s">
         <v>603</v>
       </c>
-      <c r="CD52" s="13" t="s">
+      <c r="CE52" s="13" t="s">
         <v>604</v>
       </c>
-      <c r="CE52" s="13" t="s">
+      <c r="CF52" s="13" t="s">
         <v>605</v>
-      </c>
-      <c r="CF52" s="13" t="s">
-        <v>606</v>
       </c>
       <c r="CG52" s="13" t="s">
         <v>386</v>
@@ -16892,42 +16916,42 @@
         <v>387</v>
       </c>
       <c r="CI52" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="CJ52" s="13" t="s">
         <v>607</v>
       </c>
-      <c r="CJ52" s="13" t="s">
+      <c r="CK52" s="13" t="s">
         <v>608</v>
       </c>
-      <c r="CK52" s="13" t="s">
+      <c r="CL52" s="13" t="s">
         <v>609</v>
       </c>
-      <c r="CL52" s="13" t="s">
+      <c r="CM52" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="CM52" s="13" t="s">
+      <c r="CN52" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="CN52" s="13" t="s">
+      <c r="CO52" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="CO52" s="13" t="s">
+      <c r="CP52" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="CP52" s="13" t="s">
-        <v>614</v>
-      </c>
     </row>
-    <row r="53" spans="1:94" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:94" ht="33">
       <c r="A53" s="54" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B53" s="50" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="51" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D53" s="51" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>176</v>
@@ -16936,7 +16960,7 @@
         <v>177</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H53" s="19" t="s">
         <v>178</v>
@@ -16966,85 +16990,85 @@
         <v>188</v>
       </c>
       <c r="Q53" s="19" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="R53" s="19" t="s">
         <v>189</v>
       </c>
       <c r="S53" s="19" t="s">
+        <v>616</v>
+      </c>
+      <c r="T53" s="19" t="s">
         <v>617</v>
       </c>
-      <c r="T53" s="19" t="s">
+      <c r="U53" s="19" t="s">
         <v>618</v>
       </c>
-      <c r="U53" s="19" t="s">
+      <c r="V53" s="19" t="s">
         <v>619</v>
       </c>
-      <c r="V53" s="19" t="s">
+      <c r="W53" s="19" t="s">
         <v>620</v>
       </c>
-      <c r="W53" s="19" t="s">
+      <c r="X53" s="19" t="s">
         <v>621</v>
       </c>
-      <c r="X53" s="19" t="s">
+      <c r="Y53" s="19" t="s">
         <v>622</v>
       </c>
-      <c r="Y53" s="19" t="s">
+      <c r="Z53" s="19" t="s">
         <v>623</v>
       </c>
-      <c r="Z53" s="19" t="s">
+      <c r="AA53" s="19" t="s">
         <v>624</v>
       </c>
-      <c r="AA53" s="19" t="s">
+      <c r="AB53" s="19" t="s">
         <v>625</v>
       </c>
-      <c r="AB53" s="19" t="s">
+      <c r="AC53" s="19" t="s">
         <v>626</v>
       </c>
-      <c r="AC53" s="19" t="s">
+      <c r="AD53" s="19" t="s">
         <v>627</v>
       </c>
-      <c r="AD53" s="19" t="s">
+      <c r="AE53" s="19" t="s">
         <v>628</v>
       </c>
-      <c r="AE53" s="19" t="s">
+      <c r="AF53" s="19" t="s">
         <v>629</v>
       </c>
-      <c r="AF53" s="19" t="s">
+      <c r="AG53" s="19" t="s">
         <v>630</v>
       </c>
-      <c r="AG53" s="19" t="s">
+      <c r="AH53" s="19" t="s">
         <v>631</v>
       </c>
-      <c r="AH53" s="19" t="s">
+      <c r="AI53" s="19" t="s">
         <v>632</v>
       </c>
-      <c r="AI53" s="19" t="s">
+      <c r="AJ53" s="19" t="s">
         <v>633</v>
       </c>
-      <c r="AJ53" s="19" t="s">
+      <c r="AK53" s="19" t="s">
         <v>634</v>
       </c>
-      <c r="AK53" s="19" t="s">
+      <c r="AL53" s="19" t="s">
         <v>635</v>
       </c>
-      <c r="AL53" s="19" t="s">
+      <c r="AM53" s="19" t="s">
         <v>636</v>
       </c>
-      <c r="AM53" s="19" t="s">
+      <c r="AN53" s="19" t="s">
         <v>637</v>
       </c>
-      <c r="AN53" s="19" t="s">
+      <c r="AO53" s="19" t="s">
         <v>638</v>
       </c>
-      <c r="AO53" s="19" t="s">
+      <c r="AP53" s="19" t="s">
         <v>639</v>
       </c>
-      <c r="AP53" s="19" t="s">
+      <c r="AQ53" s="19" t="s">
         <v>640</v>
-      </c>
-      <c r="AQ53" s="19" t="s">
-        <v>641</v>
       </c>
       <c r="AR53" s="19" t="s">
         <v>402</v>
@@ -17086,127 +17110,127 @@
         <v>414</v>
       </c>
       <c r="BE53" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="BF53" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="BF53" s="19" t="s">
+      <c r="BG53" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="BG53" s="19" t="s">
+      <c r="BH53" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="BH53" s="19" t="s">
+      <c r="BI53" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="BI53" s="19" t="s">
+      <c r="BJ53" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="BJ53" s="19" t="s">
+      <c r="BK53" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="BK53" s="19" t="s">
+      <c r="BL53" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="BL53" s="19" t="s">
+      <c r="BM53" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="BM53" s="19" t="s">
+      <c r="BN53" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="BN53" s="19" t="s">
+      <c r="BO53" s="19" t="s">
         <v>474</v>
-      </c>
-      <c r="BO53" s="19" t="s">
-        <v>475</v>
       </c>
       <c r="BP53" s="19" t="s">
         <v>232</v>
       </c>
       <c r="BQ53" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="BR53" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="BR53" s="19" t="s">
+      <c r="BS53" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="BS53" s="19" t="s">
+      <c r="BT53" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="BT53" s="19" t="s">
+      <c r="BU53" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="BU53" s="19" t="s">
+      <c r="BV53" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="BV53" s="19" t="s">
+      <c r="BW53" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="BW53" s="19" t="s">
+      <c r="BX53" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="BX53" s="19" t="s">
+      <c r="BY53" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="BY53" s="19" t="s">
+      <c r="BZ53" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="BZ53" s="19" t="s">
-        <v>485</v>
-      </c>
       <c r="CA53" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="CB53" s="19" t="s">
         <v>642</v>
       </c>
-      <c r="CB53" s="19" t="s">
+      <c r="CC53" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="CD53" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="CE53" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="CF53" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="CG53" s="19" t="s">
         <v>643</v>
       </c>
-      <c r="CC53" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="CD53" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="CE53" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="CF53" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="CG53" s="19" t="s">
+      <c r="CH53" s="19" t="s">
         <v>644</v>
       </c>
-      <c r="CH53" s="19" t="s">
+      <c r="CI53" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="CJ53" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="CK53" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="CL53" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="CM53" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="CN53" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="CO53" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="CP53" s="19" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="59" spans="1:94">
+      <c r="A59" t="s">
         <v>645</v>
-      </c>
-      <c r="CI53" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="CJ53" s="19" t="s">
-        <v>531</v>
-      </c>
-      <c r="CK53" s="19" t="s">
-        <v>532</v>
-      </c>
-      <c r="CL53" s="19" t="s">
-        <v>533</v>
-      </c>
-      <c r="CM53" s="19" t="s">
-        <v>534</v>
-      </c>
-      <c r="CN53" s="19" t="s">
-        <v>535</v>
-      </c>
-      <c r="CO53" s="19" t="s">
-        <v>536</v>
-      </c>
-      <c r="CP53" s="19" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="59" spans="1:94" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>646</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="110" priority="186"/>
     <cfRule type="duplicateValues" dxfId="109" priority="187"/>
@@ -17469,6 +17493,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>